--- a/src/main/resources/documents/listOfStudents.xlsx
+++ b/src/main/resources/documents/listOfStudents.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -47,85 +47,91 @@
     <t>field of University</t>
   </si>
   <si>
-    <t>Guli</t>
-  </si>
-  <si>
-    <t>Shodiyevna</t>
-  </si>
-  <si>
-    <t>Jamilova</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>2006-11-27</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2022-01-04</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>KIDS</t>
-  </si>
-  <si>
-    <t>Pochemuchka</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Hamdamovna</t>
-  </si>
-  <si>
-    <t>Kamolova</t>
-  </si>
-  <si>
-    <t>2004-02-11</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Organika</t>
-  </si>
-  <si>
-    <t>Malika</t>
-  </si>
-  <si>
-    <t>Sobirovna</t>
-  </si>
-  <si>
-    <t>Nomonova</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>2024-12-16</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Molekulyar Fizika</t>
-  </si>
-  <si>
-    <t>Nigina</t>
-  </si>
-  <si>
-    <t>Qodirova</t>
-  </si>
-  <si>
-    <t>2002-10-19</t>
+    <t>Qodir</t>
+  </si>
+  <si>
+    <t>rahimovich</t>
+  </si>
+  <si>
+    <t>Sobirov</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>2001-06-01</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>KIUF</t>
+  </si>
+  <si>
+    <t>Koreya Iqtisodiyoti</t>
+  </si>
+  <si>
+    <t>Sobir</t>
+  </si>
+  <si>
+    <t>Bahodir</t>
+  </si>
+  <si>
+    <t>Pedogogika Universiteti</t>
+  </si>
+  <si>
+    <t>Fizika</t>
+  </si>
+  <si>
+    <t>Nodir</t>
+  </si>
+  <si>
+    <t>Micky</t>
+  </si>
+  <si>
+    <t>2004-06-01</t>
+  </si>
+  <si>
+    <t>TATU</t>
+  </si>
+  <si>
+    <t>A.X</t>
+  </si>
+  <si>
+    <t>Rahimovich</t>
+  </si>
+  <si>
+    <t>Furqat</t>
+  </si>
+  <si>
+    <t>Qobil</t>
+  </si>
+  <si>
+    <t>Sardor</t>
+  </si>
+  <si>
+    <t>Azinjon</t>
+  </si>
+  <si>
+    <t>Begzod</t>
+  </si>
+  <si>
+    <t>Humoyin</t>
+  </si>
+  <si>
+    <t>O'zbekiston Milliy Universiteti</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
+    <t>Nabi</t>
   </si>
 </sst>
 </file>
@@ -170,23 +176,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.27734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.15625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.8515625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.6328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8203125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="27.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.78125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -267,16 +273,16 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -285,83 +291,363 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/documents/listOfStudents.xlsx
+++ b/src/main/resources/documents/listOfStudents.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Study End Date</t>
   </si>
   <si>
-    <t>University Study</t>
+    <t>University</t>
   </si>
   <si>
     <t>field of University</t>
@@ -116,12 +116,48 @@
     <t>Sardor</t>
   </si>
   <si>
-    <t>Azinjon</t>
-  </si>
-  <si>
     <t>Begzod</t>
   </si>
   <si>
+    <t>Nabi</t>
+  </si>
+  <si>
+    <t>Jalil</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>Sadir</t>
+  </si>
+  <si>
+    <t>Toirov</t>
+  </si>
+  <si>
+    <t>Zakirov</t>
+  </si>
+  <si>
+    <t>Azimbek</t>
+  </si>
+  <si>
+    <t>Gulom</t>
+  </si>
+  <si>
+    <t>Komilovich</t>
+  </si>
+  <si>
+    <t>Asror</t>
+  </si>
+  <si>
+    <t>2002-06-01</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
     <t>Humoyin</t>
   </si>
   <si>
@@ -129,9 +165,6 @@
   </si>
   <si>
     <t>Matematika</t>
-  </si>
-  <si>
-    <t>Nabi</t>
   </si>
 </sst>
 </file>
@@ -176,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -512,7 +545,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -547,7 +580,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -582,13 +615,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -597,57 +630,267 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/documents/listOfStudents.xlsx
+++ b/src/main/resources/documents/listOfStudents.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Toirov</t>
   </si>
   <si>
-    <t>Zakirov</t>
-  </si>
-  <si>
     <t>Azimbek</t>
   </si>
   <si>
@@ -158,7 +155,28 @@
     <t>2023-11-04</t>
   </si>
   <si>
+    <t>Bezod</t>
+  </si>
+  <si>
+    <t>Bod</t>
+  </si>
+  <si>
+    <t>2024-03-30</t>
+  </si>
+  <si>
+    <t>fdsd</t>
+  </si>
+  <si>
     <t>Humoyin</t>
+  </si>
+  <si>
+    <t>Axrorbek</t>
+  </si>
+  <si>
+    <t>hfuhghh</t>
+  </si>
+  <si>
+    <t>acsecas</t>
   </si>
   <si>
     <t>O'zbekiston Milliy Universiteti</t>
@@ -209,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -650,7 +668,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -659,7 +677,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -685,10 +703,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -720,16 +738,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -738,7 +756,7 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -755,31 +773,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
         <v>28</v>
@@ -790,10 +808,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -808,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -825,31 +843,31 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -860,37 +878,282 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
       </c>
       <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
         <v>15</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
         <v>18</v>
       </c>
-      <c r="J19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" t="s">
-        <v>50</v>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
